--- a/results/Parallel Priority Queue Results.xlsx
+++ b/results/Parallel Priority Queue Results.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kiera\Documents\EE 361C\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\juanf\Desktop\Juan Main\GitHub\ParallelPriorityQueue\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CF7AD7CE-54E2-44FE-89A4-565DB1602773}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC200B91-8B88-42DA-AC3A-533A0018ADDA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{5C3CBF1A-4C37-4F90-BC7F-70B61B99919B}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{5C3CBF1A-4C37-4F90-BC7F-70B61B99919B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -116,6 +116,66 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>4 Million</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Queue Operations on a 4-Core Machine</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout>
@@ -169,52 +229,52 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>2561</c:v>
+                  <c:v>4036</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5159</c:v>
+                  <c:v>4293</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6946</c:v>
+                  <c:v>8419</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9546</c:v>
+                  <c:v>8418</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>11227</c:v>
+                  <c:v>8088</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9902</c:v>
+                  <c:v>8868</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>10712</c:v>
+                  <c:v>8453</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>9909</c:v>
+                  <c:v>8860</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>10852</c:v>
+                  <c:v>9870</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10345</c:v>
+                  <c:v>9008</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>10233</c:v>
+                  <c:v>9578</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>10003</c:v>
+                  <c:v>9916</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>10024</c:v>
+                  <c:v>8842</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>9396</c:v>
+                  <c:v>9938</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>9707</c:v>
+                  <c:v>9488</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>9745</c:v>
+                  <c:v>10269</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -263,52 +323,52 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>5567</c:v>
+                  <c:v>5881</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4337</c:v>
+                  <c:v>5838</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2755</c:v>
+                  <c:v>4973</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1852</c:v>
+                  <c:v>5527</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6986</c:v>
+                  <c:v>5025</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>18713</c:v>
+                  <c:v>4914</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>24261</c:v>
+                  <c:v>5060</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>24906</c:v>
+                  <c:v>5087</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>24070</c:v>
+                  <c:v>5014</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>22451</c:v>
+                  <c:v>5344</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>23394</c:v>
+                  <c:v>4961</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>23911</c:v>
+                  <c:v>5426</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>22959</c:v>
+                  <c:v>6393</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>22590</c:v>
+                  <c:v>5843</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>21967</c:v>
+                  <c:v>5977</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>20811</c:v>
+                  <c:v>5781</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1516,22 +1576,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2907697C-4D08-497B-BDFB-1461316FD1FB}">
   <dimension ref="A1:C18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" topLeftCell="D13" workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1542,180 +1602,180 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2561</v>
+        <v>4036</v>
       </c>
       <c r="C3">
-        <v>5567</v>
+        <v>5881</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>5159</v>
+        <v>4293</v>
       </c>
       <c r="C4">
-        <v>4337</v>
+        <v>5838</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6946</v>
+        <v>8419</v>
       </c>
       <c r="C5">
-        <v>2755</v>
+        <v>4973</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>9546</v>
+        <v>8418</v>
       </c>
       <c r="C6">
-        <v>1852</v>
+        <v>5527</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11227</v>
+        <v>8088</v>
       </c>
       <c r="C7">
-        <v>6986</v>
+        <v>5025</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>9902</v>
+        <v>8868</v>
       </c>
       <c r="C8">
-        <v>18713</v>
+        <v>4914</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>10712</v>
+        <v>8453</v>
       </c>
       <c r="C9">
-        <v>24261</v>
+        <v>5060</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>9909</v>
+        <v>8860</v>
       </c>
       <c r="C10">
-        <v>24906</v>
+        <v>5087</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>10852</v>
+        <v>9870</v>
       </c>
       <c r="C11">
-        <v>24070</v>
+        <v>5014</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>10345</v>
+        <v>9008</v>
       </c>
       <c r="C12">
-        <v>22451</v>
+        <v>5344</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>10233</v>
+        <v>9578</v>
       </c>
       <c r="C13">
-        <v>23394</v>
+        <v>4961</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>10003</v>
+        <v>9916</v>
       </c>
       <c r="C14">
-        <v>23911</v>
+        <v>5426</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>10024</v>
+        <v>8842</v>
       </c>
       <c r="C15">
-        <v>22959</v>
+        <v>6393</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>9396</v>
+        <v>9938</v>
       </c>
       <c r="C16">
-        <v>22590</v>
+        <v>5843</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>9707</v>
+        <v>9488</v>
       </c>
       <c r="C17">
-        <v>21967</v>
+        <v>5977</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>9745</v>
+        <v>10269</v>
       </c>
       <c r="C18">
-        <v>20811</v>
+        <v>5781</v>
       </c>
     </row>
   </sheetData>
